--- a/biology/Botanique/Hans_Fleischmann/Hans_Fleischmann.xlsx
+++ b/biology/Botanique/Hans_Fleischmann/Hans_Fleischmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Fleischmann (1875-1928) est un botaniste et orchidologue allemand.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1914 : Orchideen der Insel Curzola, 4 pp.
 1913 : Ein neuer Circium-Bastard: aus dem nachgelassenen Herbare Mich. Ferd. Müllners, 3 pp.
@@ -571,14 +587,50 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre de l'Académie viennoise des sciences
-Membre de la Société d'horticulture
-Éponymes
-(Loganiaceae) Geniostoma fleischmannii Rech.[1]
-(Orchidaceae) Epipactis fleischmannii Heimerl[2]
-(Orchidaceae) Ophrys fleischmannii Hayek[3]</t>
+Membre de la Société d'horticulture</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hans_Fleischmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Fleischmann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éponymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Loganiaceae) Geniostoma fleischmannii Rech.
+(Orchidaceae) Epipactis fleischmannii Heimerl
+(Orchidaceae) Ophrys fleischmannii Hayek</t>
         </is>
       </c>
     </row>
